--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1817.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1817.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.239260928578438</v>
+        <v>1.015358805656433</v>
       </c>
       <c r="B1">
-        <v>2.315267117012016</v>
+        <v>1.193194150924683</v>
       </c>
       <c r="C1">
-        <v>2.976118270703883</v>
+        <v>5.550911903381348</v>
       </c>
       <c r="D1">
-        <v>3.521672788569504</v>
+        <v>1.638734340667725</v>
       </c>
       <c r="E1">
-        <v>1.464435882078705</v>
+        <v>1.001130342483521</v>
       </c>
     </row>
   </sheetData>
